--- a/biology/Zoologie/Eriocranioidea/Eriocranioidea.xlsx
+++ b/biology/Zoologie/Eriocranioidea/Eriocranioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eriocraniidae sont une famille de petits lépidoptères primitifs. Elle est la seule représentante de la super-famille des Eriocranioidea et de l'infra-ordre des Dacnonypha.
-Décrite par l'entomologiste autrichien Hans Rebel en 1901, cette famille est considérée comme l'une des plus primitives des familles de lépidoptères. Elle rassemble 29 espèces[1], présentes principalement dans les régions holarctiques, dont quelques-unes en Asie tropicale et en Australie. Neuf sont connues en Europe. 
+Décrite par l'entomologiste autrichien Hans Rebel en 1901, cette famille est considérée comme l'une des plus primitives des familles de lépidoptères. Elle rassemble 29 espèces, présentes principalement dans les régions holarctiques, dont quelques-unes en Asie tropicale et en Australie. Neuf sont connues en Europe. 
 Leurs imagos sont de petits papillons principalement diurnes, qui peuvent être trouvés près de leurs plantes hôtes. Les chenilles sont mineuses ; en Europe, elles vivent sur des Betulaceae et des Fagaceae[réf. souhaitée].
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 avril 2019) :
 genre Catolbistis Meyrick, 1930
 genre Dyseriocrania Spuler, 1910 - présent en Europe
 genre Electrocrania Kuznetzov, 1941 †
